--- a/data/data_analysis/predictions_categories_table.xlsx
+++ b/data/data_analysis/predictions_categories_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Simon\Projekter\Data Science Project\BilbasenProject\data\data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E1EEE81F-26C6-4440-86E1-372A407EAB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98139EBA-4ECA-4A28-BEBB-A3B47C9B2E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{716FE0D4-BB68-4923-A08B-8C9532209672}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{716FE0D4-BB68-4923-A08B-8C9532209672}"/>
   </bookViews>
   <sheets>
     <sheet name="predictions_categories" sheetId="1" r:id="rId1"/>
@@ -1167,8 +1167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6666D8-3749-4775-9B28-12EB176F2C56}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2098,7 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2889,10 +2889,11 @@
     <hyperlink ref="G74" r:id="rId1" xr:uid="{2BA8C748-0717-470E-9C81-33742EFD3678}"/>
     <hyperlink ref="G73" r:id="rId2" xr:uid="{6164D5E1-277A-460F-9F48-A8C85B67AC53}"/>
     <hyperlink ref="G2" r:id="rId3" xr:uid="{A1A3096D-ACF2-4FB7-A32C-7E51564C5234}"/>
+    <hyperlink ref="G40" r:id="rId4" xr:uid="{6A7368DB-4028-4AB4-A0C6-251D2C34697F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>